--- a/output/flan-t5-base-comparison.xlsx
+++ b/output/flan-t5-base-comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,70 @@
         <v>0.4983743652364004</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4623376622882511</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3306709264708865</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4858958068131532</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4810649528996617</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6264550264051614</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5679532163246404</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5893510814820118</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8198226628568328</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.506246953240538</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4815399179059394</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3441897868453772</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5111871544655046</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4842840511726259</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.644706603290044</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5761463530032375</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5981212638279295</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8238054080251053</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5200250186443797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/flan-t5-base-comparison.xlsx
+++ b/output/flan-t5-base-comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,6 +1241,230 @@
         <v>0.5200250186443797</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4963428453198112</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3683366733001247</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5144927535745767</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4922435748519126</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6553930529665493</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5708902495970449</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.597647058774628</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.827802663203809</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5279066011978067</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4882832661836091</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3510025808544599</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5065908503003342</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4915606935919442</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6581779596287619</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5772511847843971</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5937765685617348</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8289131033701206</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5238061577007487</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4943052391305019</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3822937625290179</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5057291666179692</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5092678405434508</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6524177656011737</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6175223739493755</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6177266575964843</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8322241962020185</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5398946865668534</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4914297658369504</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3789558556278864</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5197472353382006</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5164275797744747</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6586880775141285</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5986795566586327</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6178063642028712</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8329001151350738</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5402477764218778</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4907407406912163</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3771564544444657</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5159102764249374</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.516728624485604</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.659441306620824</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5773979106815047</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6186022784750138</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8346246434068028</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5365682274033665</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5024885938949858</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3805436337166366</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5272631021215469</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5395922237529058</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6748806406400242</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5746357773564787</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6077519379352987</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8358233526273198</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5438794156311253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4916658144508727</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3759102538398932</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5179366325775697</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.529425447728832</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6709382150530641</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5801183431455483</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6068405011362408</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8368836071229465</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5389764582760029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/flan-t5-base-comparison.xlsx
+++ b/output/flan-t5-base-comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,546 +923,674 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2385035073563005</v>
+        <v>0.3710678807452448</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1772037162519054</v>
+        <v>0.2723267921039893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.359820089906943</v>
+        <v>0.3867430849257978</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4104510941891398</v>
+        <v>0.4269264835645457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4516325907343491</v>
+        <v>0.5631182636443631</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5203718580935418</v>
+        <v>0.5327027338298304</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5118237770815107</v>
+        <v>0.5788358062453319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7345045280768284</v>
+        <v>0.783768035740127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3814009476590986</v>
+        <v>0.447388720722729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3045934135713232</v>
+        <v>0.3832082055128429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2460184408603969</v>
+        <v>0.2716857610016244</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3463414633669522</v>
+        <v>0.430684382002505</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4224006945461369</v>
+        <v>0.4517120280456444</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5138826353996757</v>
+        <v>0.585710085219353</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5161435989572495</v>
+        <v>0.53418013851861</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5623495425612808</v>
+        <v>0.5853738701239549</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7579426151069137</v>
+        <v>0.7948549489306678</v>
       </c>
       <c r="J17" t="n">
-        <v>0.415961398466145</v>
+        <v>0.463222067203505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3756139226500976</v>
+        <v>0.4019898390702292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2765034097499587</v>
+        <v>0.2870426520661198</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3876123875643147</v>
+        <v>0.4525069286491913</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4244826067319447</v>
+        <v>0.4801801801307332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5619371031541818</v>
+        <v>0.6315789473186184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5504352872400458</v>
+        <v>0.5669034586670715</v>
       </c>
       <c r="H18" t="n">
-        <v>0.576677054240422</v>
+        <v>0.5998337489121714</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7783212480716661</v>
+        <v>0.8065138377944303</v>
       </c>
       <c r="J18" t="n">
-        <v>0.450465967332995</v>
+        <v>0.4885765364020193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3710678807452448</v>
+        <v>0.4427056521691604</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2723267921039893</v>
+        <v>0.297652208468919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3867430849257978</v>
+        <v>0.4673642251637216</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4269264835645457</v>
+        <v>0.4552808988269804</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5631182636443631</v>
+        <v>0.6295023164948125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5327027338298304</v>
+        <v>0.5790697673922797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5788358062453319</v>
+        <v>0.5931697612244882</v>
       </c>
       <c r="I19" t="n">
-        <v>0.783768035740127</v>
+        <v>0.8117210019393697</v>
       </c>
       <c r="J19" t="n">
-        <v>0.447388720722729</v>
+        <v>0.4949635471057659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3832082055128429</v>
+        <v>0.4377736084559449</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2716857610016244</v>
+        <v>0.2943426615199272</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430684382002505</v>
+        <v>0.4776119402502307</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4517120280456444</v>
+        <v>0.4783102429666006</v>
       </c>
       <c r="F20" t="n">
-        <v>0.585710085219353</v>
+        <v>0.620471014442896</v>
       </c>
       <c r="G20" t="n">
-        <v>0.53418013851861</v>
+        <v>0.5895967270105743</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5853738701239549</v>
+        <v>0.5905143620086293</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7948549489306678</v>
+        <v>0.8160435244530057</v>
       </c>
       <c r="J20" t="n">
-        <v>0.463222067203505</v>
+        <v>0.4983743652364004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4019898390702292</v>
+        <v>0.4623376622882511</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2870426520661198</v>
+        <v>0.3306709264708865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4525069286491913</v>
+        <v>0.4858958068131532</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4801801801307332</v>
+        <v>0.4810649528996617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6315789473186184</v>
+        <v>0.6264550264051614</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5669034586670715</v>
+        <v>0.5679532163246404</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5998337489121714</v>
+        <v>0.5893510814820118</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8065138377944303</v>
+        <v>0.8198226628568328</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4885765364020193</v>
+        <v>0.506246953240538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4427056521691604</v>
+        <v>0.4815399179059394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297652208468919</v>
+        <v>0.3441897868453772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4673642251637216</v>
+        <v>0.5111871544655046</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4552808988269804</v>
+        <v>0.4842840511726259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6295023164948125</v>
+        <v>0.644706603290044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5790697673922797</v>
+        <v>0.5761463530032375</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5931697612244882</v>
+        <v>0.5981212638279295</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8117210019393697</v>
+        <v>0.8238054080251053</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4949635471057659</v>
+        <v>0.5200250186443797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4377736084559449</v>
+        <v>0.4963428453198112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2943426615199272</v>
+        <v>0.3683366733001247</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4776119402502307</v>
+        <v>0.5144927535745767</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4783102429666006</v>
+        <v>0.4922435748519126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.620471014442896</v>
+        <v>0.6553930529665493</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5895967270105743</v>
+        <v>0.5708902495970449</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5905143620086293</v>
+        <v>0.597647058774628</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8160435244530057</v>
+        <v>0.827802663203809</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4983743652364004</v>
+        <v>0.5279066011978067</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4623376622882511</v>
+        <v>0.4882832661836091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3306709264708865</v>
+        <v>0.3510025808544599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4858958068131532</v>
+        <v>0.5065908503003342</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4810649528996617</v>
+        <v>0.4915606935919442</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6264550264051614</v>
+        <v>0.6581779596287619</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5679532163246404</v>
+        <v>0.5772511847843971</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5893510814820118</v>
+        <v>0.5937765685617348</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8198226628568328</v>
+        <v>0.8289131033701206</v>
       </c>
       <c r="J24" t="n">
-        <v>0.506246953240538</v>
+        <v>0.5238061577007487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4815399179059394</v>
+        <v>0.4943052391305019</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3441897868453772</v>
+        <v>0.3822937625290179</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5111871544655046</v>
+        <v>0.5057291666179692</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4842840511726259</v>
+        <v>0.5092678405434508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.644706603290044</v>
+        <v>0.6524177656011737</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5761463530032375</v>
+        <v>0.6175223739493755</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5981212638279295</v>
+        <v>0.6177266575964843</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8238054080251053</v>
+        <v>0.8322241962020185</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5200250186443797</v>
+        <v>0.5398946865668534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4963428453198112</v>
+        <v>0.4914297658369504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3683366733001247</v>
+        <v>0.3789558556278864</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5144927535745767</v>
+        <v>0.5197472353382006</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4922435748519126</v>
+        <v>0.5164275797744747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6553930529665493</v>
+        <v>0.6586880775141285</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5708902495970449</v>
+        <v>0.5986795566586327</v>
       </c>
       <c r="H26" t="n">
-        <v>0.597647058774628</v>
+        <v>0.6178063642028712</v>
       </c>
       <c r="I26" t="n">
-        <v>0.827802663203809</v>
+        <v>0.8329001151350738</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5279066011978067</v>
+        <v>0.5402477764218778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4882832661836091</v>
+        <v>0.4907407406912163</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3510025808544599</v>
+        <v>0.3771564544444657</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5065908503003342</v>
+        <v>0.5159102764249374</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4915606935919442</v>
+        <v>0.516728624485604</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6581779596287619</v>
+        <v>0.659441306620824</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5772511847843971</v>
+        <v>0.5773979106815047</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5937765685617348</v>
+        <v>0.6186022784750138</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8289131033701206</v>
+        <v>0.8346246434068028</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5238061577007487</v>
+        <v>0.5365682274033665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4943052391305019</v>
+        <v>0.5024885938949858</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3822937625290179</v>
+        <v>0.3805436337166366</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5057291666179692</v>
+        <v>0.5272631021215469</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5092678405434508</v>
+        <v>0.5395922237529058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6524177656011737</v>
+        <v>0.6748806406400242</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6175223739493755</v>
+        <v>0.5746357773564787</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6177266575964843</v>
+        <v>0.6077519379352987</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8322241962020185</v>
+        <v>0.8358233526273198</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5398946865668534</v>
+        <v>0.5438794156311253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4914297658369504</v>
+        <v>0.4916658144508727</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3789558556278864</v>
+        <v>0.3759102538398932</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5197472353382006</v>
+        <v>0.5179366325775697</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5164275797744747</v>
+        <v>0.529425447728832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6586880775141285</v>
+        <v>0.6709382150530641</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5986795566586327</v>
+        <v>0.5801183431455483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6178063642028712</v>
+        <v>0.6068405011362408</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8329001151350738</v>
+        <v>0.8368836071229465</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5402477764218778</v>
+        <v>0.5389764582760029</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4907407406912163</v>
+        <v>0.4924592181714371</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3771564544444657</v>
+        <v>0.3955387372565546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5159102764249374</v>
+        <v>0.5274027005070797</v>
       </c>
       <c r="E30" t="n">
-        <v>0.516728624485604</v>
+        <v>0.5442561204775049</v>
       </c>
       <c r="F30" t="n">
-        <v>0.659441306620824</v>
+        <v>0.6749769159241991</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5773979106815047</v>
+        <v>0.5790160046924154</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6186022784750138</v>
+        <v>0.6362549119618306</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8346246434068028</v>
+        <v>0.8387483856034256</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5365682274033665</v>
+        <v>0.5499863727130031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5024885938949858</v>
+        <v>0.5067977410090264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3805436337166366</v>
+        <v>0.3874366767521885</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5272631021215469</v>
+        <v>0.5246345424521693</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5395922237529058</v>
+        <v>0.5536776957368502</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6748806406400242</v>
+        <v>0.6721286133369598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5746357773564787</v>
+        <v>0.5810229445008857</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6077519379352987</v>
+        <v>0.6250863855762013</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8358233526273198</v>
+        <v>0.8390731726769201</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5438794156311253</v>
+        <v>0.5501120856234688</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4916658144508727</v>
+        <v>0.4952825402770082</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3759102538398932</v>
+        <v>0.3917485264754035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5179366325775697</v>
+        <v>0.5312582431587271</v>
       </c>
       <c r="E32" t="n">
-        <v>0.529425447728832</v>
+        <v>0.5242763771678082</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6709382150530641</v>
+        <v>0.6736228325417478</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5801183431455483</v>
+        <v>0.5765107786050455</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6068405011362408</v>
+        <v>0.6327260343456242</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8368836071229465</v>
+        <v>0.8391416861680417</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5389764582760029</v>
+        <v>0.5464893332244806</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5071583066762059</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3981666001923868</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.54598155462835</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.538733223402045</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6884136020426831</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5862150639010113</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6297625149004947</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8415650148814203</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5563472665347395</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4968283199831575</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3960948395627253</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5319989464878901</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5464720194147566</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6876923076423617</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.601336834516946</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6271186440185544</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8428061156876052</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5553631302323416</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5201925088437495</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.385922330050833</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5299328858569526</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5419479266617405</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6833231146036552</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.603442050738475</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6430699140911492</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8428696142878306</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5582615329780792</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.519971101199349</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.393508314920364</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5370271709685871</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5493127561593789</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6876543209376972</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6073361394570924</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6472537052688915</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8433705681870113</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.56315192984448</v>
       </c>
     </row>
   </sheetData>
